--- a/data/trans_orig/P16A97-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A97-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{365BA233-5380-4C33-9FF7-AA9F95625B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8197357-8DF1-426E-9B15-868298E35997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2A3F165F-5893-4223-8404-EB6C59DBB882}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CD3CE17A-FAF9-47B2-92E6-CA23B6006E26}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,28 +77,28 @@
     <t>5,75%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
   </si>
   <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
   </si>
   <si>
     <t>7,8%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>94,25%</t>
   </si>
   <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
   </si>
   <si>
     <t>88,78%</t>
   </si>
   <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
   </si>
   <si>
     <t>92,2%</t>
   </si>
   <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>6,04%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
   </si>
   <si>
     <t>11,98%</t>
   </si>
   <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
   </si>
   <si>
     <t>8,68%</t>
   </si>
   <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
   </si>
   <si>
     <t>93,96%</t>
   </si>
   <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
   </si>
   <si>
     <t>88,02%</t>
   </si>
   <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
   </si>
   <si>
     <t>91,32%</t>
   </si>
   <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -197,25 +197,25 @@
     <t>3,46%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
   </si>
   <si>
     <t>11,28%</t>
   </si>
   <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
   </si>
   <si>
     <t>6,84%</t>
   </si>
   <si>
-    <t>5,36%</t>
+    <t>5,5%</t>
   </si>
   <si>
     <t>8,6%</t>
@@ -224,19 +224,19 @@
     <t>96,54%</t>
   </si>
   <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
   </si>
   <si>
     <t>88,72%</t>
   </si>
   <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
   </si>
   <si>
     <t>93,16%</t>
@@ -245,7 +245,7 @@
     <t>91,4%</t>
   </si>
   <si>
-    <t>94,64%</t>
+    <t>94,5%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -254,55 +254,55 @@
     <t>4,85%</t>
   </si>
   <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
   </si>
   <si>
     <t>6,38%</t>
   </si>
   <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
   </si>
   <si>
     <t>95,15%</t>
   </si>
   <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
   </si>
   <si>
     <t>91,51%</t>
   </si>
   <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
   </si>
   <si>
     <t>93,62%</t>
   </si>
   <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -311,103 +311,103 @@
     <t>3,45%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
   </si>
   <si>
     <t>96,55%</t>
   </si>
   <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
   </si>
   <si>
     <t>94,12%</t>
   </si>
   <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>5,3%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
   </si>
   <si>
     <t>10,14%</t>
   </si>
   <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
   </si>
   <si>
     <t>95,7%</t>
   </si>
   <si>
-    <t>94,7%</t>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
   </si>
   <si>
     <t>89,86%</t>
   </si>
   <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
   </si>
   <si>
     <t>93,17%</t>
   </si>
   <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -419,529 +419,535 @@
     <t>22,02%</t>
   </si>
   <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
   </si>
   <si>
     <t>34,22%</t>
   </si>
   <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
   </si>
   <si>
     <t>27,03%</t>
   </si>
   <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
   </si>
   <si>
     <t>77,98%</t>
   </si>
   <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
   </si>
   <si>
     <t>65,78%</t>
   </si>
   <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
   </si>
   <si>
     <t>72,97%</t>
   </si>
   <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
   </si>
   <si>
     <t>20,1%</t>
   </si>
   <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
   </si>
   <si>
     <t>34,46%</t>
   </si>
   <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
   </si>
   <si>
     <t>26,53%</t>
   </si>
   <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
   </si>
   <si>
     <t>79,9%</t>
   </si>
   <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
   </si>
   <si>
     <t>65,54%</t>
   </si>
   <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
   </si>
   <si>
     <t>73,47%</t>
   </si>
   <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
   </si>
   <si>
     <t>17,72%</t>
   </si>
   <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
   </si>
   <si>
     <t>36,33%</t>
   </si>
   <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
   </si>
   <si>
     <t>25,77%</t>
   </si>
   <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
   </si>
   <si>
     <t>82,28%</t>
   </si>
   <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
   </si>
   <si>
     <t>63,67%</t>
   </si>
   <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
   </si>
   <si>
     <t>74,23%</t>
   </si>
   <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
   </si>
   <si>
     <t>14,48%</t>
   </si>
   <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2015 (Tasa respuesta: 52,25%)</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
     <t>11,05%</t>
   </si>
   <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
   </si>
   <si>
     <t>88,95%</t>
   </si>
   <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2015 (Tasa respuesta: 52,25%)</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
   </si>
   <si>
     <t>81,74%</t>
   </si>
   <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
   </si>
   <si>
     <t>85,72%</t>
@@ -950,115 +956,109 @@
     <t>83,1%</t>
   </si>
   <si>
-    <t>88,11%</t>
+    <t>87,99%</t>
   </si>
   <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
   </si>
   <si>
     <t>23,8%</t>
   </si>
   <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
   </si>
   <si>
     <t>17,85%</t>
   </si>
   <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
   </si>
   <si>
     <t>87,82%</t>
   </si>
   <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
   </si>
   <si>
     <t>76,2%</t>
   </si>
   <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
   </si>
   <si>
     <t>82,15%</t>
   </si>
   <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
   </si>
   <si>
     <t>12,75%</t>
   </si>
   <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
   </si>
   <si>
     <t>23,87%</t>
   </si>
   <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
   </si>
   <si>
     <t>17,82%</t>
   </si>
   <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
+    <t>19,24%</t>
   </si>
   <si>
     <t>87,25%</t>
   </si>
   <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
   </si>
   <si>
     <t>76,13%</t>
   </si>
   <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
   </si>
   <si>
     <t>82,18%</t>
   </si>
   <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
+    <t>80,76%</t>
   </si>
   <si>
     <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2023 (Tasa respuesta: 35,25%)</t>
@@ -1590,7 +1590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7773244F-C5DC-4B0E-8F8A-BB6F132894DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D488C5-1F9A-4D2A-B581-20DF0CA27B14}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2349,13 +2349,13 @@
         <v>41325</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>62</v>
@@ -2364,13 +2364,13 @@
         <v>61289</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,13 +2385,13 @@
         <v>558896</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>406</v>
@@ -2400,13 +2400,13 @@
         <v>422547</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>987</v>
@@ -2415,13 +2415,13 @@
         <v>981443</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2489,13 +2489,13 @@
         <v>87458</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>158</v>
@@ -2504,13 +2504,13 @@
         <v>157891</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>245</v>
@@ -2519,13 +2519,13 @@
         <v>245349</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2540,13 +2540,13 @@
         <v>1947663</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H20" s="7">
         <v>1364</v>
@@ -2653,7 +2653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D85159B-AB21-4516-A30C-581E940EFE59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18833094-37DC-4A18-ADCA-B187D5E8EC2E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3135,7 +3135,7 @@
         <v>470</v>
       </c>
       <c r="D11" s="7">
-        <v>508629</v>
+        <v>508628</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>170</v>
@@ -3186,7 +3186,7 @@
         <v>573</v>
       </c>
       <c r="D12" s="7">
-        <v>618169</v>
+        <v>618168</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3716,7 +3716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7AA6D6-C551-4FC6-8EC1-934DD11950AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA669B9-69BB-4469-B46D-5F85BF61A318}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4305,13 +4305,13 @@
         <v>50557</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>180</v>
+        <v>288</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -4320,13 +4320,13 @@
         <v>67902</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M13" s="7">
         <v>107</v>
@@ -4335,13 +4335,13 @@
         <v>118458</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,13 +4356,13 @@
         <v>406976</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>297</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H14" s="7">
         <v>297</v>
@@ -4371,13 +4371,13 @@
         <v>303996</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M14" s="7">
         <v>667</v>
@@ -4386,13 +4386,13 @@
         <v>710973</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,13 +4460,13 @@
         <v>60948</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H16" s="7">
         <v>98</v>
@@ -4475,13 +4475,13 @@
         <v>113291</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M16" s="7">
         <v>159</v>
@@ -4490,13 +4490,13 @@
         <v>174239</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,13 +4511,13 @@
         <v>439273</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H17" s="7">
         <v>349</v>
@@ -4526,13 +4526,13 @@
         <v>362767</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M17" s="7">
         <v>783</v>
@@ -4541,13 +4541,13 @@
         <v>802040</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,13 +4615,13 @@
         <v>249156</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H19" s="7">
         <v>351</v>
@@ -4630,13 +4630,13 @@
         <v>390662</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M19" s="7">
         <v>595</v>
@@ -4645,13 +4645,13 @@
         <v>639818</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>329</v>
+        <v>272</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,13 +4666,13 @@
         <v>1704362</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H20" s="7">
         <v>1227</v>
@@ -4681,13 +4681,13 @@
         <v>1245926</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M20" s="7">
         <v>2837</v>
@@ -4696,13 +4696,13 @@
         <v>2950287</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>339</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,7 +4779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294CD186-8990-42E2-A204-331827845A9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A27E29-0D42-4EAD-B9C5-BE74AA1B2FCB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16A97-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A97-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8197357-8DF1-426E-9B15-868298E35997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63894840-5EA5-4367-A1FA-CCF544D51303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CD3CE17A-FAF9-47B2-92E6-CA23B6006E26}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EDD3B370-1DB0-411F-BC4B-1402ECEA3391}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,25 +80,25 @@
     <t>1,45%</t>
   </si>
   <si>
-    <t>14,45%</t>
+    <t>13,25%</t>
   </si>
   <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
   </si>
   <si>
     <t>7,8%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>94,25%</t>
   </si>
   <si>
-    <t>85,55%</t>
+    <t>86,75%</t>
   </si>
   <si>
     <t>98,55%</t>
@@ -116,298 +116,298 @@
     <t>88,78%</t>
   </si>
   <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
   </si>
   <si>
     <t>92,2%</t>
   </si>
   <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>6,04%</t>
   </si>
   <si>
-    <t>3,91%</t>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
   </si>
   <si>
     <t>8,91%</t>
   </si>
   <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
   </si>
   <si>
     <t>91,09%</t>
   </si>
   <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
   </si>
   <si>
     <t>94,12%</t>
   </si>
   <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
   </si>
   <si>
     <t>10,14%</t>
   </si>
   <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
+    <t>11,58%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
   </si>
   <si>
     <t>95,7%</t>
   </si>
   <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
   </si>
   <si>
     <t>89,86%</t>
   </si>
   <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
+    <t>88,42%</t>
   </si>
   <si>
     <t>93,17%</t>
   </si>
   <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -419,646 +419,646 @@
     <t>22,02%</t>
   </si>
   <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
   </si>
   <si>
     <t>34,22%</t>
   </si>
   <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
   </si>
   <si>
     <t>27,03%</t>
   </si>
   <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
   </si>
   <si>
     <t>77,98%</t>
   </si>
   <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
   </si>
   <si>
     <t>65,78%</t>
   </si>
   <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
   </si>
   <si>
     <t>72,97%</t>
   </si>
   <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
   </si>
   <si>
     <t>20,1%</t>
   </si>
   <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
   </si>
   <si>
     <t>34,46%</t>
   </si>
   <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
   </si>
   <si>
     <t>26,53%</t>
   </si>
   <si>
-    <t>23,06%</t>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2016 (Tasa respuesta: 52,25%)</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
   </si>
   <si>
     <t>30,43%</t>
   </si>
   <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
   </si>
   <si>
     <t>69,57%</t>
   </si>
   <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2015 (Tasa respuesta: 52,25%)</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
+    <t>77,72%</t>
   </si>
   <si>
     <t>80,99%</t>
   </si>
   <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
   </si>
   <si>
     <t>11,05%</t>
   </si>
   <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
   </si>
   <si>
     <t>18,26%</t>
   </si>
   <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
   </si>
   <si>
     <t>14,28%</t>
   </si>
   <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
   </si>
   <si>
     <t>88,95%</t>
   </si>
   <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
   </si>
   <si>
     <t>81,74%</t>
   </si>
   <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
   </si>
   <si>
     <t>85,72%</t>
   </si>
   <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
   </si>
   <si>
     <t>23,8%</t>
   </si>
   <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
   </si>
   <si>
     <t>17,85%</t>
   </si>
   <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
   </si>
   <si>
     <t>76,2%</t>
   </si>
   <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
   </si>
   <si>
     <t>82,15%</t>
   </si>
   <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
   </si>
   <si>
     <t>12,75%</t>
   </si>
   <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
   </si>
   <si>
     <t>23,87%</t>
   </si>
   <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
   </si>
   <si>
     <t>17,82%</t>
   </si>
   <si>
-    <t>19,24%</t>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
   </si>
   <si>
     <t>87,25%</t>
   </si>
   <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
   </si>
   <si>
     <t>76,13%</t>
   </si>
   <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
   </si>
   <si>
     <t>82,18%</t>
   </si>
   <si>
-    <t>80,76%</t>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
   </si>
   <si>
     <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2023 (Tasa respuesta: 35,25%)</t>
@@ -1590,7 +1590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D488C5-1F9A-4D2A-B581-20DF0CA27B14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AA26C0-35CF-4343-8EE7-E0E3174BBCFE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2349,13 +2349,13 @@
         <v>41325</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>62</v>
@@ -2364,13 +2364,13 @@
         <v>61289</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,13 +2385,13 @@
         <v>558896</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>406</v>
@@ -2400,13 +2400,13 @@
         <v>422547</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>987</v>
@@ -2415,13 +2415,13 @@
         <v>981443</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2489,13 +2489,13 @@
         <v>87458</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>158</v>
@@ -2504,13 +2504,13 @@
         <v>157891</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>245</v>
@@ -2519,13 +2519,13 @@
         <v>245349</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2540,13 +2540,13 @@
         <v>1947663</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>1364</v>
@@ -2555,13 +2555,13 @@
         <v>1399722</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="M20" s="7">
         <v>3242</v>
@@ -2653,7 +2653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18833094-37DC-4A18-ADCA-B187D5E8EC2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1C685D-36D7-440F-97F6-14ACBF743171}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3716,7 +3716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA669B9-69BB-4469-B46D-5F85BF61A318}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F344AE0B-7EAE-4075-9A4E-063C77E6D14D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4460,13 +4460,13 @@
         <v>60948</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H16" s="7">
         <v>98</v>
@@ -4475,13 +4475,13 @@
         <v>113291</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M16" s="7">
         <v>159</v>
@@ -4490,13 +4490,13 @@
         <v>174239</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,13 +4511,13 @@
         <v>439273</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H17" s="7">
         <v>349</v>
@@ -4526,13 +4526,13 @@
         <v>362767</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M17" s="7">
         <v>783</v>
@@ -4541,13 +4541,13 @@
         <v>802040</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,13 +4615,13 @@
         <v>249156</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H19" s="7">
         <v>351</v>
@@ -4630,13 +4630,13 @@
         <v>390662</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M19" s="7">
         <v>595</v>
@@ -4645,13 +4645,13 @@
         <v>639818</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,13 +4666,13 @@
         <v>1704362</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H20" s="7">
         <v>1227</v>
@@ -4681,13 +4681,13 @@
         <v>1245926</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M20" s="7">
         <v>2837</v>
@@ -4696,13 +4696,13 @@
         <v>2950287</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,7 +4779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A27E29-0D42-4EAD-B9C5-BE74AA1B2FCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97A7AA2-971F-4D84-993A-A58DEC3D3CB6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16A97-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A97-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63894840-5EA5-4367-A1FA-CCF544D51303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7811A385-6CB9-4EED-9200-C8B07FA81989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EDD3B370-1DB0-411F-BC4B-1402ECEA3391}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{507446DF-0DFE-41FB-ACEF-1D484B0EF431}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,28 +77,28 @@
     <t>5,75%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
   </si>
   <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
   </si>
   <si>
     <t>7,8%</t>
   </si>
   <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>94,25%</t>
   </si>
   <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
   </si>
   <si>
     <t>88,78%</t>
   </si>
   <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
   </si>
   <si>
     <t>92,2%</t>
   </si>
   <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>6,04%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
   </si>
   <si>
     <t>11,98%</t>
   </si>
   <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
   </si>
   <si>
     <t>8,68%</t>
   </si>
   <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
   </si>
   <si>
     <t>93,96%</t>
   </si>
   <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
   </si>
   <si>
     <t>88,02%</t>
   </si>
   <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
   </si>
   <si>
     <t>91,32%</t>
   </si>
   <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -197,55 +197,55 @@
     <t>3,46%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
   </si>
   <si>
     <t>11,28%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
   </si>
   <si>
     <t>6,84%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
   </si>
   <si>
     <t>96,54%</t>
   </si>
   <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
   </si>
   <si>
     <t>88,72%</t>
   </si>
   <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
   </si>
   <si>
     <t>93,16%</t>
   </si>
   <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -254,25 +254,25 @@
     <t>4,85%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
   </si>
   <si>
     <t>6,38%</t>
   </si>
   <si>
-    <t>4,8%</t>
+    <t>4,75%</t>
   </si>
   <si>
     <t>8,62%</t>
@@ -281,19 +281,19 @@
     <t>95,15%</t>
   </si>
   <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
   </si>
   <si>
     <t>91,51%</t>
   </si>
   <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
   </si>
   <si>
     <t>93,62%</t>
@@ -302,7 +302,7 @@
     <t>91,38%</t>
   </si>
   <si>
-    <t>95,2%</t>
+    <t>95,25%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -311,103 +311,103 @@
     <t>3,45%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
   </si>
   <si>
     <t>8,91%</t>
   </si>
   <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
   </si>
   <si>
     <t>96,55%</t>
   </si>
   <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
   </si>
   <si>
     <t>91,09%</t>
   </si>
   <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
   </si>
   <si>
     <t>94,12%</t>
   </si>
   <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
+    <t>5,3%</t>
   </si>
   <si>
     <t>10,14%</t>
   </si>
   <si>
-    <t>11,58%</t>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
   </si>
   <si>
     <t>95,7%</t>
   </si>
   <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
+    <t>94,7%</t>
   </si>
   <si>
     <t>89,86%</t>
   </si>
   <si>
-    <t>88,42%</t>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
   </si>
   <si>
     <t>93,17%</t>
   </si>
   <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -419,79 +419,79 @@
     <t>22,02%</t>
   </si>
   <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
   </si>
   <si>
     <t>34,22%</t>
   </si>
   <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
   </si>
   <si>
     <t>27,03%</t>
   </si>
   <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
   </si>
   <si>
     <t>77,98%</t>
   </si>
   <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
   </si>
   <si>
     <t>65,78%</t>
   </si>
   <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
   </si>
   <si>
     <t>72,97%</t>
   </si>
   <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
   </si>
   <si>
     <t>20,1%</t>
   </si>
   <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
   </si>
   <si>
     <t>34,46%</t>
   </si>
   <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
   </si>
   <si>
     <t>26,53%</t>
   </si>
   <si>
-    <t>23,3%</t>
+    <t>23,02%</t>
   </si>
   <si>
     <t>30,3%</t>
@@ -500,19 +500,19 @@
     <t>79,9%</t>
   </si>
   <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
   </si>
   <si>
     <t>65,54%</t>
   </si>
   <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
   </si>
   <si>
     <t>73,47%</t>
@@ -521,544 +521,544 @@
     <t>69,7%</t>
   </si>
   <si>
-    <t>76,7%</t>
+    <t>76,98%</t>
   </si>
   <si>
     <t>17,72%</t>
   </si>
   <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
   </si>
   <si>
     <t>36,33%</t>
   </si>
   <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
   </si>
   <si>
     <t>25,77%</t>
   </si>
   <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
   </si>
   <si>
     <t>82,28%</t>
   </si>
   <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
   </si>
   <si>
     <t>63,67%</t>
   </si>
   <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
   </si>
   <si>
     <t>74,23%</t>
   </si>
   <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
   </si>
   <si>
     <t>14,48%</t>
   </si>
   <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2016 (Tasa respuesta: 52,25%)</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
     <t>11,29%</t>
   </si>
   <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
   </si>
   <si>
     <t>88,71%</t>
   </si>
   <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
   </si>
   <si>
     <t>78,56%</t>
   </si>
   <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2016 (Tasa respuesta: 52,25%)</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
     <t>82,18%</t>
   </si>
   <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
   </si>
   <si>
     <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2023 (Tasa respuesta: 35,25%)</t>
@@ -1590,7 +1590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AA26C0-35CF-4343-8EE7-E0E3174BBCFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3C6CCF-EB30-4C38-9502-F721CDE5F5DB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2492,10 +2492,10 @@
         <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>158</v>
@@ -2504,10 +2504,10 @@
         <v>157891</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>111</v>
@@ -2546,7 +2546,7 @@
         <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="H20" s="7">
         <v>1364</v>
@@ -2555,13 +2555,13 @@
         <v>1399722</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M20" s="7">
         <v>3242</v>
@@ -2653,7 +2653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1C685D-36D7-440F-97F6-14ACBF743171}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E393573D-E690-486D-A637-E07A61E6766C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3135,7 +3135,7 @@
         <v>470</v>
       </c>
       <c r="D11" s="7">
-        <v>508628</v>
+        <v>508629</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>170</v>
@@ -3186,7 +3186,7 @@
         <v>573</v>
       </c>
       <c r="D12" s="7">
-        <v>618168</v>
+        <v>618169</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3716,7 +3716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F344AE0B-7EAE-4075-9A4E-063C77E6D14D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A62FB8-7174-4A7B-96F8-1C14EF5904AB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4305,13 +4305,13 @@
         <v>50557</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -4320,13 +4320,13 @@
         <v>67902</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M13" s="7">
         <v>107</v>
@@ -4335,13 +4335,13 @@
         <v>118458</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,13 +4356,13 @@
         <v>406976</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H14" s="7">
         <v>297</v>
@@ -4371,13 +4371,13 @@
         <v>303996</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M14" s="7">
         <v>667</v>
@@ -4386,13 +4386,13 @@
         <v>710973</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,13 +4460,13 @@
         <v>60948</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H16" s="7">
         <v>98</v>
@@ -4475,13 +4475,13 @@
         <v>113291</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M16" s="7">
         <v>159</v>
@@ -4490,13 +4490,13 @@
         <v>174239</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,7 +4511,7 @@
         <v>439273</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>314</v>
@@ -4779,7 +4779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97A7AA2-971F-4D84-993A-A58DEC3D3CB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154CC8E5-73F6-4594-8193-E0E980580B2A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16A97-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A97-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7811A385-6CB9-4EED-9200-C8B07FA81989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CC58B50-A936-45CB-8237-3B65A5AFA445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{507446DF-0DFE-41FB-ACEF-1D484B0EF431}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{25704666-DB87-4DB0-B34D-3EA252DEF366}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="315">
   <si>
     <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2007 (Tasa respuesta: 53,56%)</t>
   </si>
@@ -68,787 +68,622 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2012 (Tasa respuesta: 53,28%)</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2016 (Tasa respuesta: 52,25%)</t>
+  </si>
+  <si>
+    <t>14,34%</t>
   </si>
   <si>
     <t>11,1%</t>
   </si>
   <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
   </si>
   <si>
     <t>88,9%</t>
   </si>
   <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2012 (Tasa respuesta: 53,28%)</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2016 (Tasa respuesta: 52,25%)</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -905,9 +740,6 @@
     <t>83,47%</t>
   </si>
   <si>
-    <t>8,31%</t>
-  </si>
-  <si>
     <t>14,22%</t>
   </si>
   <si>
@@ -932,9 +764,6 @@
     <t>85,78%</t>
   </si>
   <si>
-    <t>91,69%</t>
-  </si>
-  <si>
     <t>81,74%</t>
   </si>
   <si>
@@ -1070,43 +899,25 @@
     <t>0%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
   </si>
   <si>
     <t>0,42%</t>
@@ -1145,16 +956,10 @@
     <t>99,7%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
     <t>0,41%</t>
   </si>
   <si>
     <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
   </si>
   <si>
     <t>99,59%</t>
@@ -1590,8 +1395,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3C6CCF-EB30-4C38-9502-F721CDE5F5DB}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF7CB7A-ABF4-4885-AE64-5D6D8D966F9E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1708,10 +1513,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>4236</v>
+        <v>26139</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1723,10 +1528,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="I4" s="7">
-        <v>4973</v>
+        <v>39650</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1738,10 +1543,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="N4" s="7">
-        <v>9208</v>
+        <v>65790</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1759,10 +1564,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>62</v>
+        <v>397</v>
       </c>
       <c r="D5" s="7">
-        <v>69473</v>
+        <v>410208</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1774,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="I5" s="7">
-        <v>39334</v>
+        <v>294191</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1789,10 +1594,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>106</v>
+        <v>691</v>
       </c>
       <c r="N5" s="7">
-        <v>108808</v>
+        <v>704398</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1810,10 +1615,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>66</v>
+        <v>424</v>
       </c>
       <c r="D6" s="7">
-        <v>73709</v>
+        <v>436347</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1825,10 +1630,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>50</v>
+        <v>334</v>
       </c>
       <c r="I6" s="7">
-        <v>44307</v>
+        <v>333841</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1840,10 +1645,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>116</v>
+        <v>758</v>
       </c>
       <c r="N6" s="7">
-        <v>118016</v>
+        <v>770188</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1863,10 +1668,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>21904</v>
+        <v>20251</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1878,10 +1683,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I7" s="7">
-        <v>34678</v>
+        <v>50195</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1893,10 +1698,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="N7" s="7">
-        <v>56581</v>
+        <v>70446</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1914,10 +1719,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>335</v>
+        <v>515</v>
       </c>
       <c r="D8" s="7">
-        <v>340734</v>
+        <v>564275</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1929,10 +1734,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>250</v>
+        <v>372</v>
       </c>
       <c r="I8" s="7">
-        <v>254856</v>
+        <v>394929</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1944,10 +1749,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>585</v>
+        <v>887</v>
       </c>
       <c r="N8" s="7">
-        <v>595591</v>
+        <v>959204</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1965,10 +1770,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>358</v>
+        <v>535</v>
       </c>
       <c r="D9" s="7">
-        <v>362638</v>
+        <v>584526</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1980,10 +1785,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>284</v>
+        <v>420</v>
       </c>
       <c r="I9" s="7">
-        <v>289534</v>
+        <v>445124</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1995,10 +1800,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>642</v>
+        <v>955</v>
       </c>
       <c r="N9" s="7">
-        <v>652172</v>
+        <v>1029650</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2018,10 +1823,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>20251</v>
+        <v>21104</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2033,10 +1838,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="I10" s="7">
-        <v>50195</v>
+        <v>26721</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2048,10 +1853,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="N10" s="7">
-        <v>70446</v>
+        <v>47824</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2069,10 +1874,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>515</v>
+        <v>385</v>
       </c>
       <c r="D11" s="7">
-        <v>564275</v>
+        <v>414284</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2084,10 +1889,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>372</v>
+        <v>292</v>
       </c>
       <c r="I11" s="7">
-        <v>394929</v>
+        <v>288055</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2099,10 +1904,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>887</v>
+        <v>677</v>
       </c>
       <c r="N11" s="7">
-        <v>959204</v>
+        <v>702340</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2120,10 +1925,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>535</v>
+        <v>404</v>
       </c>
       <c r="D12" s="7">
-        <v>584526</v>
+        <v>435388</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2135,10 +1940,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>420</v>
+        <v>321</v>
       </c>
       <c r="I12" s="7">
-        <v>445124</v>
+        <v>314776</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2150,10 +1955,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>955</v>
+        <v>725</v>
       </c>
       <c r="N12" s="7">
-        <v>1029650</v>
+        <v>750164</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2173,10 +1978,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>21104</v>
+        <v>19964</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2188,10 +1993,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I13" s="7">
-        <v>26721</v>
+        <v>41325</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2203,10 +2008,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="N13" s="7">
-        <v>47824</v>
+        <v>61289</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2224,10 +2029,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>385</v>
+        <v>581</v>
       </c>
       <c r="D14" s="7">
-        <v>414284</v>
+        <v>558896</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2239,10 +2044,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>292</v>
+        <v>406</v>
       </c>
       <c r="I14" s="7">
-        <v>288055</v>
+        <v>422547</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2254,10 +2059,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>677</v>
+        <v>987</v>
       </c>
       <c r="N14" s="7">
-        <v>702340</v>
+        <v>981442</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2275,10 +2080,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>404</v>
+        <v>602</v>
       </c>
       <c r="D15" s="7">
-        <v>435388</v>
+        <v>578860</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2290,10 +2095,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>321</v>
+        <v>447</v>
       </c>
       <c r="I15" s="7">
-        <v>314776</v>
+        <v>463872</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2305,10 +2110,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>725</v>
+        <v>1049</v>
       </c>
       <c r="N15" s="7">
-        <v>750164</v>
+        <v>1042731</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2322,55 +2127,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="D16" s="7">
-        <v>19964</v>
+        <v>87458</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>158</v>
+      </c>
+      <c r="I16" s="7">
+        <v>157891</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>41</v>
-      </c>
-      <c r="I16" s="7">
-        <v>41325</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>245</v>
+      </c>
+      <c r="N16" s="7">
+        <v>245349</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>62</v>
-      </c>
-      <c r="N16" s="7">
-        <v>61289</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,49 +2184,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>581</v>
+        <v>1878</v>
       </c>
       <c r="D17" s="7">
-        <v>558896</v>
+        <v>1947663</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1364</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1399722</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>406</v>
-      </c>
-      <c r="I17" s="7">
-        <v>422547</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>3242</v>
+      </c>
+      <c r="N17" s="7">
+        <v>3347385</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>987</v>
-      </c>
-      <c r="N17" s="7">
-        <v>981443</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,10 +2235,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>602</v>
+        <v>1965</v>
       </c>
       <c r="D18" s="7">
-        <v>578860</v>
+        <v>2035121</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2445,10 +2250,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>447</v>
+        <v>1522</v>
       </c>
       <c r="I18" s="7">
-        <v>463872</v>
+        <v>1557613</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2460,10 +2265,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1049</v>
+        <v>3487</v>
       </c>
       <c r="N18" s="7">
-        <v>1042732</v>
+        <v>3592734</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2476,171 +2281,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>87</v>
-      </c>
-      <c r="D19" s="7">
-        <v>87458</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" s="7">
-        <v>158</v>
-      </c>
-      <c r="I19" s="7">
-        <v>157891</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M19" s="7">
-        <v>245</v>
-      </c>
-      <c r="N19" s="7">
-        <v>245349</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1878</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1947663</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1364</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1399722</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3242</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3347385</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1965</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2035121</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1522</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1557613</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3487</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3592734</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2653,8 +2302,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E393573D-E690-486D-A637-E07A61E6766C}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFB8964-2BED-49D5-A7AA-A55CD97E8EAC}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2670,7 +2319,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2771,49 +2420,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="D4" s="7">
-        <v>15997</v>
+        <v>85996</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="I4" s="7">
-        <v>17298</v>
+        <v>114619</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>32</v>
+        <v>185</v>
       </c>
       <c r="N4" s="7">
-        <v>33294</v>
+        <v>200615</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,49 +2471,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>61</v>
+        <v>329</v>
       </c>
       <c r="D5" s="7">
-        <v>56635</v>
+        <v>334974</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="I5" s="7">
-        <v>33246</v>
+        <v>218325</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>90</v>
+        <v>531</v>
       </c>
       <c r="N5" s="7">
-        <v>89882</v>
+        <v>553300</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,10 +2522,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>78</v>
+        <v>410</v>
       </c>
       <c r="D6" s="7">
-        <v>72632</v>
+        <v>420970</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2888,10 +2537,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>44</v>
+        <v>306</v>
       </c>
       <c r="I6" s="7">
-        <v>50544</v>
+        <v>332944</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2903,10 +2552,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>122</v>
+        <v>716</v>
       </c>
       <c r="N6" s="7">
-        <v>123176</v>
+        <v>753915</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2926,49 +2575,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="D7" s="7">
-        <v>69999</v>
+        <v>109540</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="I7" s="7">
-        <v>97321</v>
+        <v>171148</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>153</v>
+        <v>259</v>
       </c>
       <c r="N7" s="7">
-        <v>167320</v>
+        <v>280688</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,49 +2626,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>268</v>
+        <v>470</v>
       </c>
       <c r="D8" s="7">
-        <v>278339</v>
+        <v>508629</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
-        <v>173</v>
+        <v>276</v>
       </c>
       <c r="I8" s="7">
-        <v>185080</v>
+        <v>299920</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>441</v>
+        <v>746</v>
       </c>
       <c r="N8" s="7">
-        <v>463419</v>
+        <v>808549</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,10 +2677,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>332</v>
+        <v>573</v>
       </c>
       <c r="D9" s="7">
-        <v>348338</v>
+        <v>618169</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3043,10 +2692,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>262</v>
+        <v>432</v>
       </c>
       <c r="I9" s="7">
-        <v>282401</v>
+        <v>471068</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3058,10 +2707,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>594</v>
+        <v>1005</v>
       </c>
       <c r="N9" s="7">
-        <v>630739</v>
+        <v>1089237</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3081,49 +2730,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="D10" s="7">
-        <v>109540</v>
+        <v>67034</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="I10" s="7">
-        <v>171148</v>
+        <v>120537</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
-        <v>259</v>
+        <v>169</v>
       </c>
       <c r="N10" s="7">
-        <v>280688</v>
+        <v>187571</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,49 +2781,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>470</v>
+        <v>368</v>
       </c>
       <c r="D11" s="7">
-        <v>508629</v>
+        <v>396051</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="I11" s="7">
-        <v>299920</v>
+        <v>249925</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
-        <v>746</v>
+        <v>598</v>
       </c>
       <c r="N11" s="7">
-        <v>808548</v>
+        <v>645977</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,10 +2832,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>573</v>
+        <v>428</v>
       </c>
       <c r="D12" s="7">
-        <v>618169</v>
+        <v>463085</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3198,10 +2847,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>432</v>
+        <v>339</v>
       </c>
       <c r="I12" s="7">
-        <v>471068</v>
+        <v>370462</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3213,10 +2862,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1005</v>
+        <v>767</v>
       </c>
       <c r="N12" s="7">
-        <v>1089236</v>
+        <v>833548</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3236,49 +2885,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="D13" s="7">
-        <v>67034</v>
+        <v>99991</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="I13" s="7">
-        <v>120537</v>
+        <v>168493</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
-        <v>169</v>
+        <v>252</v>
       </c>
       <c r="N13" s="7">
-        <v>187571</v>
+        <v>268484</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,49 +2936,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>368</v>
+        <v>451</v>
       </c>
       <c r="D14" s="7">
-        <v>396051</v>
+        <v>457117</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="I14" s="7">
-        <v>249925</v>
+        <v>290466</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
-        <v>598</v>
+        <v>727</v>
       </c>
       <c r="N14" s="7">
-        <v>645977</v>
+        <v>747584</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,10 +2987,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>428</v>
+        <v>543</v>
       </c>
       <c r="D15" s="7">
-        <v>463085</v>
+        <v>557108</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3353,10 +3002,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>339</v>
+        <v>436</v>
       </c>
       <c r="I15" s="7">
-        <v>370462</v>
+        <v>458959</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3368,10 +3017,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>767</v>
+        <v>979</v>
       </c>
       <c r="N15" s="7">
-        <v>833548</v>
+        <v>1016068</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3385,55 +3034,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>92</v>
+        <v>336</v>
       </c>
       <c r="D16" s="7">
-        <v>99991</v>
+        <v>362561</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
-        <v>160</v>
+        <v>529</v>
       </c>
       <c r="I16" s="7">
-        <v>168493</v>
+        <v>574797</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
-        <v>252</v>
+        <v>865</v>
       </c>
       <c r="N16" s="7">
-        <v>268484</v>
+        <v>937358</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,49 +3091,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>451</v>
+        <v>1618</v>
       </c>
       <c r="D17" s="7">
-        <v>457117</v>
+        <v>1696771</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
-        <v>276</v>
+        <v>984</v>
       </c>
       <c r="I17" s="7">
-        <v>290466</v>
+        <v>1058637</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
-        <v>727</v>
+        <v>2602</v>
       </c>
       <c r="N17" s="7">
-        <v>747584</v>
+        <v>2755408</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,10 +3142,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>543</v>
+        <v>1954</v>
       </c>
       <c r="D18" s="7">
-        <v>557108</v>
+        <v>2059332</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3508,10 +3157,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>436</v>
+        <v>1513</v>
       </c>
       <c r="I18" s="7">
-        <v>458959</v>
+        <v>1633434</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3523,10 +3172,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>979</v>
+        <v>3467</v>
       </c>
       <c r="N18" s="7">
-        <v>1016068</v>
+        <v>3692766</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3539,171 +3188,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>336</v>
-      </c>
-      <c r="D19" s="7">
-        <v>362561</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H19" s="7">
-        <v>529</v>
-      </c>
-      <c r="I19" s="7">
-        <v>574797</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M19" s="7">
-        <v>865</v>
-      </c>
-      <c r="N19" s="7">
-        <v>937358</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1618</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1696771</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H20" s="7">
-        <v>984</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1058637</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2602</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2755408</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1954</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2059332</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1513</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1633434</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3467</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3692766</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3716,8 +3209,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A62FB8-7174-4A7B-96F8-1C14EF5904AB}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C3AEF5-7FAE-4C88-BF26-13F317308DE1}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3733,7 +3226,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3834,49 +3327,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D4" s="7">
-        <v>17581</v>
+        <v>56258</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="I4" s="7">
-        <v>16057</v>
+        <v>83437</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="N4" s="7">
-        <v>33637</v>
+        <v>139695</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,49 +3378,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>55</v>
+        <v>322</v>
       </c>
       <c r="D5" s="7">
-        <v>57524</v>
+        <v>335947</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
-        <v>36</v>
+        <v>226</v>
       </c>
       <c r="I5" s="7">
-        <v>33014</v>
+        <v>217593</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
-        <v>91</v>
+        <v>548</v>
       </c>
       <c r="N5" s="7">
-        <v>90539</v>
+        <v>553540</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,10 +3429,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>73</v>
+        <v>380</v>
       </c>
       <c r="D6" s="7">
-        <v>75105</v>
+        <v>392205</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3951,10 +3444,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>50</v>
+        <v>304</v>
       </c>
       <c r="I6" s="7">
-        <v>49071</v>
+        <v>301030</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3966,10 +3459,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>123</v>
+        <v>684</v>
       </c>
       <c r="N6" s="7">
-        <v>124176</v>
+        <v>693235</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3989,49 +3482,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="D7" s="7">
-        <v>38677</v>
+        <v>81394</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="I7" s="7">
-        <v>67380</v>
+        <v>126032</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="M7" s="7">
-        <v>104</v>
+        <v>193</v>
       </c>
       <c r="N7" s="7">
-        <v>106058</v>
+        <v>207426</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,49 +3533,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>267</v>
+        <v>484</v>
       </c>
       <c r="D8" s="7">
-        <v>278423</v>
+        <v>522165</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="H8" s="7">
-        <v>190</v>
+        <v>355</v>
       </c>
       <c r="I8" s="7">
-        <v>184579</v>
+        <v>361569</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="M8" s="7">
-        <v>457</v>
+        <v>839</v>
       </c>
       <c r="N8" s="7">
-        <v>463001</v>
+        <v>883734</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,10 +3584,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>307</v>
+        <v>563</v>
       </c>
       <c r="D9" s="7">
-        <v>317100</v>
+        <v>603559</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4106,10 +3599,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>254</v>
+        <v>469</v>
       </c>
       <c r="I9" s="7">
-        <v>251959</v>
+        <v>487601</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4121,10 +3614,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>561</v>
+        <v>1032</v>
       </c>
       <c r="N9" s="7">
-        <v>569059</v>
+        <v>1091160</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4144,49 +3637,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="D10" s="7">
-        <v>81394</v>
+        <v>50557</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>143</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>271</v>
+        <v>13</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="I10" s="7">
-        <v>126032</v>
+        <v>67902</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
-        <v>193</v>
+        <v>107</v>
       </c>
       <c r="N10" s="7">
-        <v>207426</v>
+        <v>118458</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,49 +3688,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>484</v>
+        <v>370</v>
       </c>
       <c r="D11" s="7">
-        <v>522165</v>
+        <v>406976</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>279</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>281</v>
+        <v>22</v>
       </c>
       <c r="H11" s="7">
-        <v>355</v>
+        <v>297</v>
       </c>
       <c r="I11" s="7">
-        <v>361569</v>
+        <v>303996</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="M11" s="7">
-        <v>839</v>
+        <v>667</v>
       </c>
       <c r="N11" s="7">
-        <v>883734</v>
+        <v>710973</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,10 +3739,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>563</v>
+        <v>416</v>
       </c>
       <c r="D12" s="7">
-        <v>603559</v>
+        <v>457533</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4261,10 +3754,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>469</v>
+        <v>358</v>
       </c>
       <c r="I12" s="7">
-        <v>487601</v>
+        <v>371898</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4276,10 +3769,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1032</v>
+        <v>774</v>
       </c>
       <c r="N12" s="7">
-        <v>1091160</v>
+        <v>829431</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4299,49 +3792,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D13" s="7">
-        <v>50557</v>
+        <v>60948</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>180</v>
+        <v>247</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="H13" s="7">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I13" s="7">
-        <v>67902</v>
+        <v>113291</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="N13" s="7">
-        <v>118458</v>
+        <v>174239</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,49 +3843,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>370</v>
+        <v>434</v>
       </c>
       <c r="D14" s="7">
-        <v>406976</v>
+        <v>439273</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>256</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="H14" s="7">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="I14" s="7">
-        <v>303996</v>
+        <v>362767</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="M14" s="7">
-        <v>667</v>
+        <v>783</v>
       </c>
       <c r="N14" s="7">
-        <v>710973</v>
+        <v>802040</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,10 +3894,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>416</v>
+        <v>495</v>
       </c>
       <c r="D15" s="7">
-        <v>457533</v>
+        <v>500221</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4416,10 +3909,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>358</v>
+        <v>447</v>
       </c>
       <c r="I15" s="7">
-        <v>371898</v>
+        <v>476058</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4431,10 +3924,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>774</v>
+        <v>942</v>
       </c>
       <c r="N15" s="7">
-        <v>829431</v>
+        <v>976279</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4448,55 +3941,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>61</v>
+        <v>244</v>
       </c>
       <c r="D16" s="7">
-        <v>60948</v>
+        <v>249156</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="H16" s="7">
-        <v>98</v>
+        <v>351</v>
       </c>
       <c r="I16" s="7">
-        <v>113291</v>
+        <v>390662</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="M16" s="7">
-        <v>159</v>
+        <v>595</v>
       </c>
       <c r="N16" s="7">
-        <v>174239</v>
+        <v>639818</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,49 +3998,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>434</v>
+        <v>1610</v>
       </c>
       <c r="D17" s="7">
-        <v>439273</v>
+        <v>1704361</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="H17" s="7">
-        <v>349</v>
+        <v>1227</v>
       </c>
       <c r="I17" s="7">
-        <v>362767</v>
+        <v>1245926</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="M17" s="7">
-        <v>783</v>
+        <v>2837</v>
       </c>
       <c r="N17" s="7">
-        <v>802040</v>
+        <v>2950287</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,10 +4049,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>495</v>
+        <v>1854</v>
       </c>
       <c r="D18" s="7">
-        <v>500221</v>
+        <v>1953517</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4571,10 +4064,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>447</v>
+        <v>1578</v>
       </c>
       <c r="I18" s="7">
-        <v>476058</v>
+        <v>1636588</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4586,10 +4079,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>942</v>
+        <v>3432</v>
       </c>
       <c r="N18" s="7">
-        <v>976279</v>
+        <v>3590105</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4602,171 +4095,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>244</v>
-      </c>
-      <c r="D19" s="7">
-        <v>249156</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H19" s="7">
-        <v>351</v>
-      </c>
-      <c r="I19" s="7">
-        <v>390662</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M19" s="7">
-        <v>595</v>
-      </c>
-      <c r="N19" s="7">
-        <v>639818</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1610</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1704362</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1227</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1245926</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2837</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2950287</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1854</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1953518</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1578</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1636588</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3432</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3590105</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4779,8 +4116,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154CC8E5-73F6-4594-8193-E0E980580B2A}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82CADB08-EACF-4896-BF1E-7009EDAC66B3}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4796,7 +4133,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4903,13 +4240,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4918,13 +4255,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4933,13 +4270,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,46 +4285,46 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>46</v>
+        <v>277</v>
       </c>
       <c r="D5" s="7">
-        <v>44135</v>
+        <v>284288</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
       </c>
       <c r="H5" s="7">
-        <v>65</v>
+        <v>383</v>
       </c>
       <c r="I5" s="7">
-        <v>42033</v>
+        <v>238760</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>348</v>
+        <v>291</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M5" s="7">
-        <v>111</v>
+        <v>660</v>
       </c>
       <c r="N5" s="7">
-        <v>86169</v>
+        <v>523048</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>30</v>
@@ -4999,10 +4336,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>46</v>
+        <v>277</v>
       </c>
       <c r="D6" s="7">
-        <v>44135</v>
+        <v>284288</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5014,10 +4351,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>65</v>
+        <v>383</v>
       </c>
       <c r="I6" s="7">
-        <v>42033</v>
+        <v>238760</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5029,10 +4366,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>111</v>
+        <v>660</v>
       </c>
       <c r="N6" s="7">
-        <v>86169</v>
+        <v>523048</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5058,13 +4395,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>350</v>
+        <v>293</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5073,13 +4410,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>351</v>
+        <v>294</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -5088,13 +4425,13 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>352</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,46 +4440,46 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>231</v>
+        <v>451</v>
       </c>
       <c r="D8" s="7">
-        <v>246788</v>
+        <v>745384</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>353</v>
+        <v>296</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="7">
-        <v>318</v>
+        <v>480</v>
       </c>
       <c r="I8" s="7">
-        <v>216326</v>
+        <v>350075</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>354</v>
+        <v>297</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M8" s="7">
-        <v>549</v>
+        <v>931</v>
       </c>
       <c r="N8" s="7">
-        <v>463114</v>
+        <v>1095459</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>355</v>
+        <v>298</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>30</v>
@@ -5154,10 +4491,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>231</v>
+        <v>451</v>
       </c>
       <c r="D9" s="7">
-        <v>246788</v>
+        <v>745384</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5169,10 +4506,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>318</v>
+        <v>480</v>
       </c>
       <c r="I9" s="7">
-        <v>216326</v>
+        <v>350075</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5184,10 +4521,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>549</v>
+        <v>931</v>
       </c>
       <c r="N9" s="7">
-        <v>463114</v>
+        <v>1095459</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5213,13 +4550,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>299</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5228,13 +4565,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>357</v>
+        <v>300</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5243,13 +4580,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>358</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5258,46 +4595,46 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>451</v>
+        <v>274</v>
       </c>
       <c r="D11" s="7">
-        <v>573056</v>
+        <v>323320</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>359</v>
+        <v>302</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
       </c>
       <c r="H11" s="7">
-        <v>480</v>
+        <v>364</v>
       </c>
       <c r="I11" s="7">
-        <v>394353</v>
+        <v>306214</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>360</v>
+        <v>303</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M11" s="7">
-        <v>931</v>
+        <v>638</v>
       </c>
       <c r="N11" s="7">
-        <v>967409</v>
+        <v>629534</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>361</v>
+        <v>304</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>30</v>
@@ -5309,10 +4646,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>451</v>
+        <v>274</v>
       </c>
       <c r="D12" s="7">
-        <v>573056</v>
+        <v>323320</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5324,10 +4661,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>480</v>
+        <v>364</v>
       </c>
       <c r="I12" s="7">
-        <v>394353</v>
+        <v>306214</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5339,10 +4676,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>931</v>
+        <v>638</v>
       </c>
       <c r="N12" s="7">
-        <v>967409</v>
+        <v>629534</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5368,13 +4705,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>362</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5383,13 +4720,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>363</v>
+        <v>305</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5398,13 +4735,13 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5413,46 +4750,46 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>274</v>
+        <v>386</v>
       </c>
       <c r="D14" s="7">
-        <v>330951</v>
+        <v>401200</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>365</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>30</v>
       </c>
       <c r="H14" s="7">
-        <v>364</v>
+        <v>467</v>
       </c>
       <c r="I14" s="7">
-        <v>306286</v>
+        <v>340597</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>366</v>
+        <v>307</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M14" s="7">
-        <v>638</v>
+        <v>853</v>
       </c>
       <c r="N14" s="7">
-        <v>637236</v>
+        <v>741796</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>367</v>
+        <v>308</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>30</v>
@@ -5464,10 +4801,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>274</v>
+        <v>386</v>
       </c>
       <c r="D15" s="7">
-        <v>330951</v>
+        <v>401200</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5479,10 +4816,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>364</v>
+        <v>467</v>
       </c>
       <c r="I15" s="7">
-        <v>306286</v>
+        <v>340597</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5494,10 +4831,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>638</v>
+        <v>853</v>
       </c>
       <c r="N15" s="7">
-        <v>637236</v>
+        <v>741796</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5511,7 +4848,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5523,13 +4860,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>368</v>
+        <v>309</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5538,13 +4875,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>369</v>
+        <v>310</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5553,13 +4890,13 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>370</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,46 +4905,46 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>386</v>
+        <v>1388</v>
       </c>
       <c r="D17" s="7">
-        <v>423543</v>
+        <v>1754190</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>371</v>
+        <v>312</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="H17" s="7">
-        <v>467</v>
+        <v>1694</v>
       </c>
       <c r="I17" s="7">
-        <v>383910</v>
+        <v>1235646</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>372</v>
+        <v>313</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M17" s="7">
-        <v>853</v>
+        <v>3082</v>
       </c>
       <c r="N17" s="7">
-        <v>807453</v>
+        <v>2989837</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>373</v>
+        <v>314</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>30</v>
@@ -5619,10 +4956,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>386</v>
+        <v>1388</v>
       </c>
       <c r="D18" s="7">
-        <v>423543</v>
+        <v>1754190</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5634,10 +4971,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>467</v>
+        <v>1694</v>
       </c>
       <c r="I18" s="7">
-        <v>383910</v>
+        <v>1235646</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5649,10 +4986,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>853</v>
+        <v>3082</v>
       </c>
       <c r="N18" s="7">
-        <v>807453</v>
+        <v>2989837</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5665,171 +5002,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1388</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1618473</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1694</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1342908</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3082</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2961381</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1388</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1618473</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1694</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1342908</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3082</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2961381</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
